--- a/assets/cursos/EP/LOQ4077.xlsx
+++ b/assets/cursos/EP/LOQ4077.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Habilitar o aluno resolver problemas práticos em mecânica dos fluidos, modelando situações reais (através das equações de conservação e fenomenológicas), promovendo abstrações e adequando os casos ilustrados a novas situações. Capacitar o aluno a realizar cálculos de transferência de calor, utilizando os mecanismos, de condução e convecção, combinados ou não. Fornecer ao aluno condições de estabelecer um pré dimensionamento de um trocador de calor.</t>
+    <t>1.Integrar o aluno com o conhecimento teórico e prático de fenômenos de transporte, abordando temas relacionados à Mecânica dos Fluidos, Transferência de Calor e Transferência de Massa, de forma a torná-lo capaz de compreender os processos físicos envolvidos nesses processos;2.Habilitar o aluno resolver problemas práticos em mecânica dos fluidos, modelando situações reais (através das equações de conservação e fenomenológicas), promovendo abstrações e adequando os casos ilustrados a novas situações.3.Capacitar o aluno a realizar cálculos de transferência de calor, utilizando os mecanismos, de condução e convecção, combinados ou não.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -85,7 +85,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Conceitos ligados ao escoamento de fluídos e equações fundamentais, Escoamento incompressível de fluidos não viscosos, Escoamento viscoso incompressível, Transferência de Calor.</t>
+    <t>Sistemas de unidades e dimensões. Conceitos básicos de escoamentos de fluidos e analogias entre transferência de momento linear, de calor e de massa. Estática e cinemática dos fluídos.  Descrição e classificação de escoamentos. Introdução à análise de escoamentos (volume de controle e diferencial). Introdução aos modos de transferência de calor (regime permanente e transiente). Introdução à transferência de massa.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,38 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Conceitos ligados ao escoamento de fluídos e equações fundamentais 
-1.1. Características e definições dos escoamentos;
-1.2. Conceitos de sistema e volume de controle;
-1.3. Equação da conservação da massa;
-1.4. Equação da conservação da energia;
-1.5. Equação da conservação da quantidade de movimento; 
-1.6. Introdução à análise diferencial do movimento de fluidos.
-2. Escoamento incompressível de fluidos não viscosos
-2.1. Equação de Euler;
-2.2. Equação de Bernoulli;
-2.3. Aplicações da equação de Bernoulli.
-3. Escoamento viscoso incompressível
-3.1. Atrito e perda de carga;
-3.2. Avaliação das perdas de carga: regime laminar e turbulento;
-3.3. Equações de Hagen - Poiseuille e Darcy  Weisbach
-3.4. Diagrama de Moody e Moody Rouse;
-3.5. Método dos comprimentos equivalentes.
-3.6. Presença de máquina no escoamento (bomba e turbina), Potência e rendimento;
-3.7. Medidores de vazão.
-4. Transferência de Calor
-4.1. Definição de Calor.
-4.2. Mecanismo da Condução.
-4.3. Mecanismo da Convecção.
-4.4. Associação de Mecanismos.
-5. Transferência de Massa
-5.1. Difusão e convecção mássica;
-5.2. 1ª lei de Fick;
-5.3. Concentrações mássica e molar;
-5.4. Frações mássica e molar;
-5.5. Velocidades médias mássica e molar;
-5.6. Fluxos difusivo mássico, difusivo molar, convectivo mássico e convectivo molar;
-5.7. Fluxo mássico total e fluxo molar total.</t>
+    <t>1. Conceitos ligados ao escoamento de fluídos e equações fundamentais 1.1. Características e definições dos escoamentos;1.2. Conceitos de sistema e volume de controle;1.3. Equação da conservação da massa;1.4. Equação da conservação da energia;1.5. Equação da conservação da quantidade de movimento; 1.6. Introdução à análise diferencial do movimento de fluidos.2. Escoamento incompressível de fluidos não viscosos2.1. Equação de Euler;2.2. Equação de Bernoulli;2.3. Aplicações da equação de Bernoulli.3. Escoamento viscoso incompressível3.1. Atrito e perda de carga;3.2. Avaliação das perdas de carga: regime laminar e turbulento;3.3. Equações de Hagen - Poiseuille e Darcy  Weisbach3.4. Diagrama de Moody e Moody Rouse;3.5. Método dos comprimentos equivalentes.3.6. Presença de máquina no escoamento (bomba e turbina), Potência e rendimento;3.7. Medidores de vazão.4. Transferência de Calor4.1. Definição de Calor.4.2. Mecanismo da Condução.4.3. Mecanismo da Convecção.4.4. Associação de Mecanismos.5. Transferência de Massa5.1. Difusão e convecção mássica;5.2. 1ª lei de Fick;5.3. Concentrações mássica e molar;5.4. Frações mássica e molar;5.5. Velocidades médias mássica e molar;5.6. Fluxos difusivo mássico, difusivo molar, convectivo mássico e convectivo molar;5.7. Fluxo mássico total e fluxo molar total.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -137,7 +106,7 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios.</t>
+    <t>Duas provas escritas</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -155,11 +124,7 @@
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. FOX, R.W., MCDONALD, A.T., Introdução à Mecânica dos Fluidos, Ed. Guanabara Koogan.
-2. STREETER, V.L., WYLE,E.B., Mecânica dos Fluidos, Ed. Mc Graw Hill.
-3. OZISIK,M.N., Transferência de Calor., Ed. Guanabara Koogan. 
-4. INCROPERA, F.P.W., Fundamentos de Transferência de Calor e Massa, Ed. Guanabara Koogan.
-5. CREMASCO, M. A., Fundamentos de Transferência de Massa, Campinas, Editora da UNICAMP, 1998.</t>
+    <t>1.LEVI, Celso P., Fundamentos de Fenômenos de Transporte. 2 ed. Ed. Gen/LTC. Rio de Janeiro/RJ. 2013.2.FOX, Robert.W., McDonald, Alan.T.; PRITCHARD, Philip J., Introdução à Mecânica dos Fluidos, 7 ed. Ed. Gen/LTC. Rio de Janeiro/RJ. 2012.3.KREITH, Frank; BOHN, Mark S., Fundamentos de Transferência de Calor, Ed. Cengage Learning, São Paulo/SP. 2011. 4.INCROPERA/ DEWITT/ BERGMAN/ LAVINE. Fundamentos de Transferência de Calor e Massa. 7 ed. Ed. Gen/LTC. Rio de Janeiro/RJ. 20145.CREMASCO, Marco. A., Fundamentos de Transferência de Massa, 3ed. Ed.  Blücher, São Paulo/SP. 2016</t>
   </si>
   <si>
     <t>Requisitos:</t>
